--- a/Ruffles.xlsx
+++ b/Ruffles.xlsx
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,7 +4137,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4161,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4649,7 +4649,7 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
         <v>90</v>
       </c>
       <c r="B108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5329,7 +5329,7 @@
         <v>90</v>
       </c>
       <c r="B153" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -5345,7 +5345,7 @@
         <v>90</v>
       </c>
       <c r="B155" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -5409,7 +5409,7 @@
         <v>90</v>
       </c>
       <c r="B163" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
